--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/XXI-В-28-2.1-500-4 (Ведьма) от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-2.1-500-4 (Ведьма)/XXI-В-28-2.1-500-4 (Ведьма) от 03.10.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3085,21 +3085,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3135,6 +3120,60 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3194,117 +3233,6 @@
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3356,73 +3284,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3446,6 +3377,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3472,9 +3472,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3483,6 +3480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5760,8 +5760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5773,25 +5773,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="394" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
       <c r="G1" s="374" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="400" t="s">
+      <c r="A2" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="401"/>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="402"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
       <c r="G2" s="373" t="s">
         <v>80</v>
       </c>
@@ -5802,45 +5802,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="404" t="s">
+      <c r="A4" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="405"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="405"/>
-      <c r="E4" s="405"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406" t="s">
+      <c r="A5" s="401" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="407"/>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="408"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="399" t="s">
+      <c r="A7" s="394" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="403"/>
-      <c r="C7" s="403"/>
-      <c r="D7" s="403"/>
-      <c r="E7" s="403"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="409"/>
-      <c r="B8" s="410"/>
-      <c r="C8" s="410"/>
-      <c r="D8" s="410"/>
-      <c r="E8" s="411"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="406"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="399" t="s">
+      <c r="A10" s="394" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="399"/>
+      <c r="B10" s="394"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>95</v>
@@ -5851,33 +5851,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="397"/>
-      <c r="B11" s="398"/>
+      <c r="A11" s="410"/>
+      <c r="B11" s="411"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="395" t="s">
+      <c r="F11" s="408" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="395"/>
-      <c r="H11" s="395"/>
-      <c r="I11" s="395"/>
-      <c r="J11" s="396" t="s">
+      <c r="G11" s="408"/>
+      <c r="H11" s="408"/>
+      <c r="I11" s="408"/>
+      <c r="J11" s="409" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="396"/>
+      <c r="K11" s="409"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="395" t="s">
+      <c r="F12" s="408" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="395"/>
-      <c r="H12" s="395"/>
-      <c r="I12" s="395"/>
-      <c r="J12" s="396" t="s">
+      <c r="G12" s="408"/>
+      <c r="H12" s="408"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="396"/>
+      <c r="K12" s="409"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="376" t="s">
@@ -5889,16 +5889,16 @@
       <c r="C13" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="395" t="s">
+      <c r="F13" s="408" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="395"/>
-      <c r="H13" s="395"/>
-      <c r="I13" s="395"/>
-      <c r="J13" s="396" t="s">
+      <c r="G13" s="408"/>
+      <c r="H13" s="408"/>
+      <c r="I13" s="408"/>
+      <c r="J13" s="409" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="396"/>
+      <c r="K13" s="409"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="378" t="s">
@@ -6052,11 +6052,11 @@
       <c r="A28" s="384"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="394" t="s">
+      <c r="A29" s="407" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="394"/>
-      <c r="C29" s="394"/>
+      <c r="B29" s="407"/>
+      <c r="C29" s="407"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6065,13 +6065,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
@@ -6080,6 +6073,13 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6133,47 +6133,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="526"/>
-      <c r="Q2" s="526"/>
+      <c r="P2" s="529"/>
+      <c r="Q2" s="529"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6184,9 +6184,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6205,22 +6205,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6231,22 +6231,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6257,27 +6257,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6606,12 +6606,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="527" t="s">
+      <c r="B18" s="526" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="528"/>
-      <c r="D18" s="528"/>
-      <c r="E18" s="529"/>
+      <c r="C18" s="527"/>
+      <c r="D18" s="527"/>
+      <c r="E18" s="528"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -6655,6 +6655,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6666,14 +6674,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6759,24 +6759,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
@@ -6787,19 +6787,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -6810,9 +6810,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6831,22 +6831,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -6857,22 +6857,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -6883,27 +6883,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -7284,17 +7284,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7302,6 +7291,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7367,19 +7367,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
+      <c r="J2" s="510"/>
       <c r="K2" s="532">
         <f>Данные!B23</f>
         <v>18</v>
@@ -7395,17 +7395,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
       <c r="K3" s="534"/>
       <c r="L3" s="535"/>
       <c r="M3" s="274"/>
@@ -7418,9 +7418,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7439,22 +7439,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7465,22 +7465,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7491,27 +7491,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -7784,11 +7784,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7802,6 +7797,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7830,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7895,47 +7895,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="443" t="s">
+      <c r="A11" s="418" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="443"/>
-      <c r="C11" s="443"/>
-      <c r="D11" s="443"/>
-      <c r="E11" s="443"/>
-      <c r="F11" s="443"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="443"/>
-      <c r="I11" s="443"/>
-      <c r="J11" s="443"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="418"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="418"/>
+      <c r="F11" s="418"/>
+      <c r="G11" s="418"/>
+      <c r="H11" s="418"/>
+      <c r="I11" s="418"/>
+      <c r="J11" s="418"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="442" t="s">
+      <c r="A12" s="417" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="442"/>
-      <c r="C12" s="442"/>
-      <c r="D12" s="442"/>
-      <c r="E12" s="442"/>
-      <c r="F12" s="442"/>
-      <c r="G12" s="442"/>
-      <c r="H12" s="442"/>
-      <c r="I12" s="442"/>
-      <c r="J12" s="442"/>
+      <c r="B12" s="417"/>
+      <c r="C12" s="417"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="417"/>
+      <c r="F12" s="417"/>
+      <c r="G12" s="417"/>
+      <c r="H12" s="417"/>
+      <c r="I12" s="417"/>
+      <c r="J12" s="417"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="444" t="str">
+      <c r="A13" s="419" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="B13" s="443"/>
-      <c r="C13" s="443"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="443"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="443"/>
-      <c r="I13" s="443"/>
-      <c r="J13" s="443"/>
+      <c r="B13" s="418"/>
+      <c r="C13" s="418"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="418"/>
+      <c r="F13" s="418"/>
+      <c r="G13" s="418"/>
+      <c r="H13" s="418"/>
+      <c r="I13" s="418"/>
+      <c r="J13" s="418"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -8060,325 +8060,325 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="432" t="s">
+      <c r="A22" s="423" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="432" t="s">
+      <c r="B22" s="423" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="432"/>
-      <c r="D22" s="432"/>
-      <c r="E22" s="432" t="s">
+      <c r="C22" s="423"/>
+      <c r="D22" s="423"/>
+      <c r="E22" s="423" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="432"/>
-      <c r="G22" s="433" t="s">
+      <c r="F22" s="423"/>
+      <c r="G22" s="424" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="432" t="s">
+      <c r="H22" s="423" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="432"/>
-      <c r="J22" s="432"/>
+      <c r="I22" s="423"/>
+      <c r="J22" s="423"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="432"/>
-      <c r="B23" s="432"/>
-      <c r="C23" s="432"/>
-      <c r="D23" s="432"/>
-      <c r="E23" s="432"/>
-      <c r="F23" s="432"/>
-      <c r="G23" s="433"/>
-      <c r="H23" s="432"/>
-      <c r="I23" s="432"/>
-      <c r="J23" s="432"/>
+      <c r="A23" s="423"/>
+      <c r="B23" s="423"/>
+      <c r="C23" s="423"/>
+      <c r="D23" s="423"/>
+      <c r="E23" s="423"/>
+      <c r="F23" s="423"/>
+      <c r="G23" s="424"/>
+      <c r="H23" s="423"/>
+      <c r="I23" s="423"/>
+      <c r="J23" s="423"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="427">
+      <c r="A24" s="440">
         <v>1</v>
       </c>
-      <c r="B24" s="429" t="s">
+      <c r="B24" s="442" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="430"/>
-      <c r="D24" s="431"/>
-      <c r="E24" s="415" t="str">
+      <c r="C24" s="443"/>
+      <c r="D24" s="444"/>
+      <c r="E24" s="428" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F24" s="416"/>
-      <c r="G24" s="419">
+      <c r="F24" s="429"/>
+      <c r="G24" s="432">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="421"/>
-      <c r="I24" s="422"/>
-      <c r="J24" s="423"/>
+      <c r="H24" s="434"/>
+      <c r="I24" s="435"/>
+      <c r="J24" s="436"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="428"/>
-      <c r="B25" s="412" t="str">
+      <c r="A25" s="441"/>
+      <c r="B25" s="425" t="str">
         <f>Данные!A30</f>
         <v>(к серийному формокомплекту ХХI-В-28-2.1-500-4 Ведьма)</v>
       </c>
-      <c r="C25" s="413"/>
-      <c r="D25" s="414"/>
-      <c r="E25" s="417"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="424"/>
-      <c r="I25" s="425"/>
-      <c r="J25" s="426"/>
+      <c r="C25" s="426"/>
+      <c r="D25" s="427"/>
+      <c r="E25" s="430"/>
+      <c r="F25" s="431"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="437"/>
+      <c r="I25" s="438"/>
+      <c r="J25" s="439"/>
     </row>
     <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="434" t="s">
+      <c r="B26" s="420" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="435"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437" t="str">
+      <c r="C26" s="421"/>
+      <c r="D26" s="422"/>
+      <c r="E26" s="415" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F26" s="437"/>
+      <c r="F26" s="415"/>
       <c r="G26" s="318">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="438"/>
-      <c r="I26" s="438"/>
-      <c r="J26" s="438"/>
+      <c r="H26" s="416"/>
+      <c r="I26" s="416"/>
+      <c r="J26" s="416"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="386">
         <f t="shared" ref="A27:A36" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="439" t="s">
+      <c r="B27" s="412" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="440"/>
-      <c r="D27" s="441"/>
-      <c r="E27" s="437" t="str">
+      <c r="C27" s="413"/>
+      <c r="D27" s="414"/>
+      <c r="E27" s="415" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F27" s="437"/>
+      <c r="F27" s="415"/>
       <c r="G27" s="318">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H27" s="438"/>
-      <c r="I27" s="438"/>
-      <c r="J27" s="438"/>
+      <c r="H27" s="416"/>
+      <c r="I27" s="416"/>
+      <c r="J27" s="416"/>
     </row>
     <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B28" s="439" t="s">
+      <c r="B28" s="412" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="440"/>
-      <c r="D28" s="441"/>
-      <c r="E28" s="437" t="str">
+      <c r="C28" s="413"/>
+      <c r="D28" s="414"/>
+      <c r="E28" s="415" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F28" s="437"/>
+      <c r="F28" s="415"/>
       <c r="G28" s="318">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H28" s="438"/>
-      <c r="I28" s="438"/>
-      <c r="J28" s="438"/>
+      <c r="H28" s="416"/>
+      <c r="I28" s="416"/>
+      <c r="J28" s="416"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B29" s="439" t="s">
+      <c r="B29" s="412" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="440"/>
-      <c r="D29" s="441"/>
-      <c r="E29" s="437" t="str">
+      <c r="C29" s="413"/>
+      <c r="D29" s="414"/>
+      <c r="E29" s="415" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F29" s="437"/>
+      <c r="F29" s="415"/>
       <c r="G29" s="318">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H29" s="438"/>
-      <c r="I29" s="438"/>
-      <c r="J29" s="438"/>
+      <c r="H29" s="416"/>
+      <c r="I29" s="416"/>
+      <c r="J29" s="416"/>
     </row>
     <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B30" s="439" t="s">
+      <c r="B30" s="412" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="440"/>
-      <c r="D30" s="441"/>
-      <c r="E30" s="437" t="str">
+      <c r="C30" s="413"/>
+      <c r="D30" s="414"/>
+      <c r="E30" s="415" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F30" s="437"/>
+      <c r="F30" s="415"/>
       <c r="G30" s="318">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H30" s="438"/>
-      <c r="I30" s="438"/>
-      <c r="J30" s="438"/>
+      <c r="H30" s="416"/>
+      <c r="I30" s="416"/>
+      <c r="J30" s="416"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B31" s="439" t="s">
+      <c r="B31" s="412" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="440"/>
-      <c r="D31" s="441"/>
-      <c r="E31" s="437" t="str">
+      <c r="C31" s="413"/>
+      <c r="D31" s="414"/>
+      <c r="E31" s="415" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F31" s="437"/>
+      <c r="F31" s="415"/>
       <c r="G31" s="318">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H31" s="438"/>
-      <c r="I31" s="438"/>
-      <c r="J31" s="438"/>
+      <c r="H31" s="416"/>
+      <c r="I31" s="416"/>
+      <c r="J31" s="416"/>
     </row>
     <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32" s="439" t="s">
+      <c r="B32" s="412" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="440"/>
-      <c r="D32" s="441"/>
-      <c r="E32" s="437" t="str">
+      <c r="C32" s="413"/>
+      <c r="D32" s="414"/>
+      <c r="E32" s="415" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F32" s="437"/>
+      <c r="F32" s="415"/>
       <c r="G32" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H32" s="438"/>
-      <c r="I32" s="438"/>
-      <c r="J32" s="438"/>
+      <c r="H32" s="416"/>
+      <c r="I32" s="416"/>
+      <c r="J32" s="416"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B33" s="439" t="s">
+      <c r="B33" s="412" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="440"/>
-      <c r="D33" s="441"/>
-      <c r="E33" s="437" t="str">
+      <c r="C33" s="413"/>
+      <c r="D33" s="414"/>
+      <c r="E33" s="415" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F33" s="437"/>
+      <c r="F33" s="415"/>
       <c r="G33" s="318">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H33" s="438"/>
-      <c r="I33" s="438"/>
-      <c r="J33" s="438"/>
+      <c r="H33" s="416"/>
+      <c r="I33" s="416"/>
+      <c r="J33" s="416"/>
     </row>
     <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B34" s="439" t="s">
+      <c r="B34" s="412" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="440"/>
-      <c r="D34" s="441"/>
-      <c r="E34" s="437" t="str">
+      <c r="C34" s="413"/>
+      <c r="D34" s="414"/>
+      <c r="E34" s="415" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F34" s="437"/>
+      <c r="F34" s="415"/>
       <c r="G34" s="318">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H34" s="438"/>
-      <c r="I34" s="438"/>
-      <c r="J34" s="438"/>
+      <c r="H34" s="416"/>
+      <c r="I34" s="416"/>
+      <c r="J34" s="416"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B35" s="439" t="s">
+      <c r="B35" s="412" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="440"/>
-      <c r="D35" s="441"/>
-      <c r="E35" s="437"/>
-      <c r="F35" s="437"/>
+      <c r="C35" s="413"/>
+      <c r="D35" s="414"/>
+      <c r="E35" s="415"/>
+      <c r="F35" s="415"/>
       <c r="G35" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H35" s="438"/>
-      <c r="I35" s="438"/>
-      <c r="J35" s="438"/>
+      <c r="H35" s="416"/>
+      <c r="I35" s="416"/>
+      <c r="J35" s="416"/>
     </row>
     <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B36" s="439" t="s">
+      <c r="B36" s="412" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="440"/>
-      <c r="D36" s="441"/>
-      <c r="E36" s="437" t="str">
+      <c r="C36" s="413"/>
+      <c r="D36" s="414"/>
+      <c r="E36" s="415" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-2.1-500-4</v>
       </c>
-      <c r="F36" s="437"/>
+      <c r="F36" s="415"/>
       <c r="G36" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H36" s="438"/>
-      <c r="I36" s="438"/>
-      <c r="J36" s="438"/>
+      <c r="H36" s="416"/>
+      <c r="I36" s="416"/>
+      <c r="J36" s="416"/>
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="313"/>
@@ -8507,12 +8507,31 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -8529,31 +8548,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8608,47 +8608,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="445"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="454" t="s">
+      <c r="B2" s="463"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="461" t="s">
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="474"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="462"/>
-      <c r="K2" s="465">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="466"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="457"/>
-      <c r="Q2" s="457"/>
+      <c r="P2" s="475"/>
+      <c r="Q2" s="475"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="448"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="458" t="s">
+      <c r="B3" s="466"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="476" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="460"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="468"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8659,9 +8659,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
-      <c r="D4" s="453"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="471"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8680,22 +8680,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="473"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="449"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="475"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="450"/>
+      <c r="J5" s="451"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8706,22 +8706,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="452"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="475"/>
-      <c r="K6" s="407"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="450"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8732,27 +8732,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="409">
+      <c r="C7" s="456"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="397">
+      <c r="J7" s="459"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9246,12 +9246,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="484" t="s">
+      <c r="B23" s="460" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="485"/>
-      <c r="D23" s="485"/>
-      <c r="E23" s="486"/>
+      <c r="C23" s="461"/>
+      <c r="D23" s="461"/>
+      <c r="E23" s="462"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -9273,12 +9273,12 @@
     </row>
     <row r="24" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="484" t="s">
+      <c r="B24" s="460" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="485"/>
-      <c r="D24" s="485"/>
-      <c r="E24" s="486"/>
+      <c r="C24" s="461"/>
+      <c r="D24" s="461"/>
+      <c r="E24" s="462"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -9300,12 +9300,12 @@
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78"/>
-      <c r="B25" s="469" t="s">
+      <c r="B25" s="445" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="470"/>
-      <c r="D25" s="470"/>
-      <c r="E25" s="471"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="447"/>
       <c r="F25" s="118" t="s">
         <v>16</v>
       </c>
@@ -9349,6 +9349,12 @@
     <row r="27" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9364,12 +9370,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R25">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9435,50 +9435,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="487">
+      <c r="B2" s="494">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="457"/>
-      <c r="Q2" s="457"/>
+      <c r="P2" s="475"/>
+      <c r="Q2" s="475"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9489,9 +9489,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9510,22 +9510,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9536,22 +9536,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9562,27 +9562,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9779,13 +9779,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="484" t="s">
+      <c r="B14" s="460" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="485"/>
-      <c r="D14" s="485"/>
-      <c r="E14" s="485"/>
-      <c r="F14" s="516"/>
+      <c r="C14" s="461"/>
+      <c r="D14" s="461"/>
+      <c r="E14" s="461"/>
+      <c r="F14" s="493"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -9804,12 +9804,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="469" t="s">
+      <c r="B15" s="445" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="470"/>
-      <c r="D15" s="470"/>
-      <c r="E15" s="471"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="446"/>
+      <c r="E15" s="447"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -9860,6 +9860,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9874,12 +9880,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9953,47 +9953,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="445"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="454" t="s">
+      <c r="B2" s="463"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="461" t="s">
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="474"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="462"/>
-      <c r="K2" s="465">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="466"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="457"/>
-      <c r="Q2" s="457"/>
+      <c r="P2" s="475"/>
+      <c r="Q2" s="475"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="448"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="458" t="s">
+      <c r="B3" s="466"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="476" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="460"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="468"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10004,9 +10004,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
-      <c r="D4" s="453"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="471"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10025,22 +10025,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="473"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="449"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="475"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="450"/>
+      <c r="J5" s="451"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10051,22 +10051,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="452"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="475"/>
-      <c r="K6" s="407"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="450"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10077,27 +10077,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="409">
+      <c r="C7" s="456"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="397">
+      <c r="J7" s="459"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10580,11 +10580,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -10598,6 +10593,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10665,24 +10665,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="445"/>
-      <c r="C2" s="446"/>
-      <c r="D2" s="447"/>
-      <c r="E2" s="454" t="s">
+      <c r="B2" s="463"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="472" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="461" t="s">
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="474"/>
+      <c r="I2" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="462"/>
-      <c r="K2" s="465">
+      <c r="J2" s="480"/>
+      <c r="K2" s="483">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="466"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -10693,19 +10693,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="448"/>
-      <c r="C3" s="449"/>
-      <c r="D3" s="450"/>
-      <c r="E3" s="458" t="s">
+      <c r="B3" s="466"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="476" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="460"/>
-      <c r="I3" s="463"/>
-      <c r="J3" s="464"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="468"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="481"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="485"/>
+      <c r="L3" s="486"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10716,9 +10716,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
-      <c r="D4" s="453"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="470"/>
+      <c r="D4" s="471"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10737,22 +10737,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="473"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="449"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="474"/>
-      <c r="J5" s="475"/>
-      <c r="K5" s="407"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="450"/>
+      <c r="J5" s="451"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10763,22 +10763,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="476"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="452"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="474"/>
-      <c r="J6" s="475"/>
-      <c r="K6" s="407"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="450"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10789,27 +10789,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="480"/>
-      <c r="D7" s="409">
+      <c r="C7" s="456"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="479" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="397">
+      <c r="J7" s="459"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11094,6 +11094,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11101,17 +11112,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11183,24 +11183,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="518"/>
       <c r="N2" s="519"/>
       <c r="O2" s="519"/>
@@ -11211,19 +11211,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="521"/>
       <c r="N3" s="522"/>
       <c r="O3" s="522"/>
@@ -11234,9 +11234,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11255,22 +11255,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="521"/>
       <c r="N5" s="522"/>
       <c r="O5" s="522"/>
@@ -11281,22 +11281,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="521"/>
       <c r="N6" s="522"/>
       <c r="O6" s="522"/>
@@ -11307,27 +11307,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="521"/>
       <c r="N7" s="522"/>
       <c r="O7" s="522"/>
@@ -11755,12 +11755,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="469" t="s">
+      <c r="B21" s="445" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="470"/>
-      <c r="D21" s="470"/>
-      <c r="E21" s="471"/>
+      <c r="C21" s="446"/>
+      <c r="D21" s="446"/>
+      <c r="E21" s="447"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -11806,13 +11806,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11825,6 +11818,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11889,24 +11889,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -11917,19 +11917,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11940,9 +11940,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11961,22 +11961,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11987,22 +11987,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12013,27 +12013,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12296,12 +12296,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="469" t="s">
+      <c r="B16" s="445" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="470"/>
-      <c r="D16" s="470"/>
-      <c r="E16" s="471"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="446"/>
+      <c r="E16" s="447"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -12347,15 +12347,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12366,6 +12357,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12433,24 +12433,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="496" t="s">
+      <c r="B2" s="494"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="503" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="498"/>
-      <c r="I2" s="502" t="s">
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="509" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="503"/>
-      <c r="K2" s="506">
+      <c r="J2" s="510"/>
+      <c r="K2" s="513">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="507"/>
+      <c r="L2" s="514"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
@@ -12461,19 +12461,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="492"/>
-      <c r="E3" s="499" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="506" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="501"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="505"/>
-      <c r="K3" s="508"/>
-      <c r="L3" s="509"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="512"/>
+      <c r="K3" s="515"/>
+      <c r="L3" s="516"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -12484,9 +12484,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="493"/>
-      <c r="C4" s="494"/>
-      <c r="D4" s="495"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="502"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12505,22 +12505,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="472" t="s">
+      <c r="B5" s="448" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="510"/>
-      <c r="D5" s="406" t="str">
+      <c r="C5" s="487"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="407"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="407"/>
-      <c r="H5" s="408"/>
-      <c r="I5" s="511"/>
-      <c r="J5" s="512"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="408"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="488"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -12531,22 +12531,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="472" t="s">
+      <c r="B6" s="448" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="510"/>
-      <c r="D6" s="400" t="str">
+      <c r="C6" s="487"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2.1-500-4 (Ведьма)</v>
       </c>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="477"/>
-      <c r="H6" s="478"/>
-      <c r="I6" s="511"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="408"/>
+      <c r="E6" s="453"/>
+      <c r="F6" s="453"/>
+      <c r="G6" s="453"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="488"/>
+      <c r="J6" s="489"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -12557,27 +12557,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="455" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="514"/>
-      <c r="D7" s="409">
+      <c r="C7" s="491"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="481"/>
-      <c r="H7" s="482"/>
-      <c r="I7" s="515" t="s">
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="492" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="514"/>
-      <c r="K7" s="397">
+      <c r="J7" s="491"/>
+      <c r="K7" s="410">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="398"/>
+      <c r="L7" s="411"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -12963,17 +12963,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12981,6 +12970,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
